--- a/content/project/the-penis-girl-observer/beanz_db.xlsx
+++ b/content/project/the-penis-girl-observer/beanz_db.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="98">
   <si>
     <t>SourceFile</t>
   </si>
@@ -128,6 +128,12 @@
     <t>22</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>IMG_8927 beanz.JPG</t>
   </si>
   <si>
@@ -188,6 +194,12 @@
     <t>IMG_9439 pgirl beanz.JPG</t>
   </si>
   <si>
+    <t>IMG_9766 beanz.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9813 beanz.JPG</t>
+  </si>
+  <si>
     <t>IMG_E9146 beanz.JPG</t>
   </si>
   <si>
@@ -221,6 +233,12 @@
     <t>2020:06:20</t>
   </si>
   <si>
+    <t>2020:08:16</t>
+  </si>
+  <si>
+    <t>2020:08:31</t>
+  </si>
+  <si>
     <t>45.5590638888889 -122.653227777778</t>
   </si>
   <si>
@@ -276,6 +294,12 @@
   </si>
   <si>
     <t>45.5613416666667 -122.649611111111</t>
+  </si>
+  <si>
+    <t>45.5314166666667 -122.64685</t>
+  </si>
+  <si>
+    <t>45.5590777777778 -122.669052777778</t>
   </si>
   <si>
     <t>45.559025 -122.651597222222</t>
@@ -388,37 +412,37 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>102.8010978</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K2" t="n">
         <v>102.8010978</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M2" t="n">
         <v>5.106635872</v>
@@ -433,7 +457,7 @@
         <v>-122.653227777778</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -441,37 +465,37 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
         <v>128.9210815</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K3" t="n">
         <v>128.9210815</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M3" t="n">
         <v>5.261382914</v>
@@ -486,7 +510,7 @@
         <v>-122.651702777778</v>
       </c>
       <c r="Q3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -494,37 +518,37 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I4" t="n">
         <v>286.0488281</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4" t="n">
         <v>286.0488281</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>6.254046504</v>
@@ -539,7 +563,7 @@
         <v>-122.644927777778</v>
       </c>
       <c r="Q4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -547,37 +571,37 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G5" t="n">
         <v>0.6761831244</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I5" t="n">
         <v>84.26869205</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K5" t="n">
         <v>84.26869205</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M5" t="n">
         <v>6.262730709</v>
@@ -592,7 +616,7 @@
         <v>-122.642988888889</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -600,37 +624,37 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I6" t="n">
         <v>358.9567568</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K6" t="n">
         <v>358.9567568</v>
       </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M6" t="n">
         <v>5.662509858</v>
@@ -645,7 +669,7 @@
         <v>-122.642730555556</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -653,37 +677,37 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I7" t="n">
         <v>181.9757767</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K7" t="n">
         <v>181.9757767</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M7" t="n">
         <v>5.329228422</v>
@@ -698,7 +722,7 @@
         <v>-122.638038888889</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -706,37 +730,37 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I8" t="n">
         <v>277.78862</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K8" t="n">
         <v>277.78862</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M8" t="n">
         <v>8.790930209</v>
@@ -751,7 +775,7 @@
         <v>-122.637436111111</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -759,37 +783,37 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I9" t="n">
         <v>183.6082305</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K9" t="n">
         <v>183.6082305</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M9" t="n">
         <v>6.585164541</v>
@@ -804,7 +828,7 @@
         <v>-122.635672222222</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -812,37 +836,37 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I10" t="n">
         <v>188.031639</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K10" t="n">
         <v>188.031639</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M10" t="n">
         <v>9.535230618</v>
@@ -857,7 +881,7 @@
         <v>-122.635436111111</v>
       </c>
       <c r="Q10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -865,37 +889,37 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
         <v>0.0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G11" t="n">
         <v>0.7308995231</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I11" t="n">
         <v>129.7243959</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K11" t="n">
         <v>129.7243959</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M11" t="n">
         <v>5.240253007</v>
@@ -910,7 +934,7 @@
         <v>-122.634797222222</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -918,37 +942,37 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I12" t="n">
         <v>325.7716371</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K12" t="n">
         <v>325.7716371</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M12" t="n">
         <v>5.448449208</v>
@@ -963,7 +987,7 @@
         <v>-122.634719444444</v>
       </c>
       <c r="Q12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -971,37 +995,37 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I13" t="n">
         <v>296.6419676</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K13" t="n">
         <v>296.6419676</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M13" t="n">
         <v>5.516661973</v>
@@ -1016,7 +1040,7 @@
         <v>-122.634811111111</v>
       </c>
       <c r="Q13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -1024,37 +1048,37 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E14" t="n">
         <v>0.0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I14" t="n">
         <v>32.40778731</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K14" t="n">
         <v>32.40778731</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M14" t="n">
         <v>5.078519878</v>
@@ -1069,7 +1093,7 @@
         <v>-122.634597222222</v>
       </c>
       <c r="Q14" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -1077,37 +1101,37 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I15" t="n">
         <v>10.40643311</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K15" t="n">
         <v>10.40643311</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M15" t="n">
         <v>6.539365474</v>
@@ -1122,7 +1146,7 @@
         <v>-122.634444444444</v>
       </c>
       <c r="Q15" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -1130,37 +1154,37 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I16" t="n">
         <v>263.2762756</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K16" t="n">
         <v>263.2762756</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M16" t="n">
         <v>7.276628799</v>
@@ -1175,7 +1199,7 @@
         <v>-122.634316666667</v>
       </c>
       <c r="Q16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -1183,37 +1207,37 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I17" t="n">
         <v>304.9739074</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K17" t="n">
         <v>304.9739074</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M17" t="n">
         <v>5.081501057</v>
@@ -1228,7 +1252,7 @@
         <v>-122.668036111111</v>
       </c>
       <c r="Q17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -1236,37 +1260,37 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I18" t="n">
         <v>356.2968442</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K18" t="n">
         <v>356.2968442</v>
       </c>
       <c r="L18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M18" t="n">
         <v>65.0</v>
@@ -1281,7 +1305,7 @@
         <v>-122.668266666667</v>
       </c>
       <c r="Q18" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -1289,37 +1313,37 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G19" t="n">
         <v>0.2369831502</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I19" t="n">
         <v>171.4773256</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K19" t="n">
         <v>171.4773256</v>
       </c>
       <c r="L19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M19" t="n">
         <v>19.48965267</v>
@@ -1334,7 +1358,7 @@
         <v>-122.668061111111</v>
       </c>
       <c r="Q19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -1342,37 +1366,37 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I20" t="n">
         <v>89.1058197</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K20" t="n">
         <v>89.1058197</v>
       </c>
       <c r="L20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M20" t="n">
         <v>5.192123978</v>
@@ -1387,7 +1411,7 @@
         <v>-122.649611111111</v>
       </c>
       <c r="Q20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -1395,7 +1419,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" t="e">
         <v>#N/A</v>
@@ -1448,52 +1472,52 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E22" t="n">
         <v>0.0</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0</v>
+        <v>0.00401470391</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I22" t="n">
-        <v>182.0529938</v>
+        <v>27.66179657</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K22" t="n">
-        <v>182.0529938</v>
-      </c>
-      <c r="L22" t="e">
-        <v>#N/A</v>
+        <v>27.66179657</v>
+      </c>
+      <c r="L22" t="s">
+        <v>73</v>
       </c>
       <c r="M22" t="n">
-        <v>6.275592274</v>
+        <v>20.76385376</v>
       </c>
       <c r="N22" t="n">
-        <v>69.56318934</v>
+        <v>49.64981504</v>
       </c>
       <c r="O22" t="n">
-        <v>45.559025</v>
+        <v>45.5314166666667</v>
       </c>
       <c r="P22" t="n">
-        <v>-122.651597222222</v>
+        <v>-122.64685</v>
       </c>
       <c r="Q22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -1501,52 +1525,158 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E23" t="n">
         <v>0.0</v>
       </c>
       <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.997991205</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" t="n">
+        <v>96.41317754</v>
+      </c>
+      <c r="J23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" t="n">
+        <v>96.41317754</v>
+      </c>
+      <c r="L23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" t="n">
+        <v>19.44824838</v>
+      </c>
+      <c r="N23" t="n">
+        <v>61.30278933</v>
+      </c>
+      <c r="O23" t="n">
+        <v>45.5590777777778</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-122.669052777778</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" t="n">
+        <v>182.0529938</v>
+      </c>
+      <c r="J24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" t="n">
+        <v>182.0529938</v>
+      </c>
+      <c r="L24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6.275592274</v>
+      </c>
+      <c r="N24" t="n">
+        <v>69.56318934</v>
+      </c>
+      <c r="O24" t="n">
+        <v>45.559025</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-122.651597222222</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="I23" t="n">
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" t="n">
         <v>4.429046633</v>
       </c>
-      <c r="J23" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.429046633</v>
       </c>
-      <c r="L23" t="e">
+      <c r="L25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M25" t="n">
         <v>10.05482501</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N25" t="n">
         <v>70.05227475</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O25" t="n">
         <v>45.5589222222222</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P25" t="n">
         <v>-122.642266666667</v>
       </c>
-      <c r="Q23" t="s">
-        <v>89</v>
+      <c r="Q25" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
